--- a/biology/Botanique/Priva/Priva.xlsx
+++ b/biology/Botanique/Priva/Priva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Priva est un genre de plantes pantropicales, de la famille des Verbenaceae, comportant environ 20 espèces. L'espèce type est Verbena lappulacea L..
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Priva regroupe des herbacées vivaces, à tiges, branches et rameaux ± tétragonaux, souvent décombants. Les feuilles décussées ou subopposées, sont simples, exstipulées, sessiles ou pétiolées, minces membraneuses, le plus souvent dentées-dentées. L'inflorescence en racème, est le plus souvent terminal, parfois axillaire. Les bractées sont peu apparentes. Les fleurs pédicellées ou subsessiles, sont bisexuées, ± zygomorphes. Les calice tubulaire porte 5 dents. La corolle est blanche, bleue, rose ou violette, en forme de plateau ou d'entonnoir, avec un tube droit ou quelque peu incurvé, le limbe 5-lobé, 2-lèvre, la lèvre supérieure 3-lobée avec un grand lobe central et 2 lobes latéraux de taille moyenne, la lèvre inférieure 2-lobée avec 2 petits lobes égaux. Les 4 étamine sont didynames, insérées vers le milieu du tube de la corolle, incluses. Les anthères sont oblongues ou ovoïdes, dorsifixées, et les staminode parfois présentes. L'ovaire comporte (2–)4 loges, et chaque loge 1 ovule. Le style porte un stigmate à 2 lobes inégaux. Le fruit est un schizocarpe sec, parfois ligneux, en 2 parties, échiné ou strié à l'extérieur. Le calice fructifère accrescent, renfermant le fruit. Les graines sont dépourvues d'endosperme[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Priva regroupe des herbacées vivaces, à tiges, branches et rameaux ± tétragonaux, souvent décombants. Les feuilles décussées ou subopposées, sont simples, exstipulées, sessiles ou pétiolées, minces membraneuses, le plus souvent dentées-dentées. L'inflorescence en racème, est le plus souvent terminal, parfois axillaire. Les bractées sont peu apparentes. Les fleurs pédicellées ou subsessiles, sont bisexuées, ± zygomorphes. Les calice tubulaire porte 5 dents. La corolle est blanche, bleue, rose ou violette, en forme de plateau ou d'entonnoir, avec un tube droit ou quelque peu incurvé, le limbe 5-lobé, 2-lèvre, la lèvre supérieure 3-lobée avec un grand lobe central et 2 lobes latéraux de taille moyenne, la lèvre inférieure 2-lobée avec 2 petits lobes égaux. Les 4 étamine sont didynames, insérées vers le milieu du tube de la corolle, incluses. Les anthères sont oblongues ou ovoïdes, dorsifixées, et les staminode parfois présentes. L'ovaire comporte (2–)4 loges, et chaque loge 1 ovule. Le style porte un stigmate à 2 lobes inégaux. Le fruit est un schizocarpe sec, parfois ligneux, en 2 parties, échiné ou strié à l'extérieur. Le calice fructifère accrescent, renfermant le fruit. Les graines sont dépourvues d'endosperme.
 </t>
         </is>
       </c>
@@ -542,10 +556,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[4] :
-Espèces valides
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Priva</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Priva</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Priva adhaerens (Forssk.) Chiov.
 Priva africana Moldenke
 Priva armata S.Watson
@@ -569,7 +621,43 @@
 Priva peruviana Moldenke
 Priva portoricensis Urb.
 Priva socotrana Moldenke
-Nomenclatures taxonomiques non résolues
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Priva</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Priva</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nomenclatures taxonomiques non résolues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Priva forskaolaei Jaub. &amp; Spach
 Priva roxburghii Endl.
 </t>
